--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -1,111 +1,850 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateuszmalich/PycharmProjects/Sbody_Scripts/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E6A320-9203-FA41-8171-E4513B21164B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="51120" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz2" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="control_panel" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Exercise Name</t>
-  </si>
-  <si>
-    <t>Toe Touch</t>
-  </si>
-  <si>
-    <t>PVC w/Band Hip Hinge</t>
-  </si>
-  <si>
-    <t>KB Elevated Deadlift</t>
-  </si>
-  <si>
-    <t>KB Deadlift</t>
-  </si>
-  <si>
-    <t>KB Swing</t>
-  </si>
-  <si>
-    <t>2L Hip Lift</t>
-  </si>
-  <si>
-    <t>2L Hip lift ISO</t>
-  </si>
-  <si>
-    <t>SH Elevated 2 Leg Hip Lift</t>
-  </si>
-  <si>
-    <t>Slide Leg Curl ECC 5sec</t>
-  </si>
-  <si>
-    <t>SB 2 Leg Curl ECC 5sec</t>
-  </si>
-  <si>
-    <t>Deficit KB Deadlift</t>
-  </si>
-  <si>
-    <t>2KB/DB Deadlift</t>
-  </si>
-  <si>
-    <t>Weighted 2-Leg Hip Lift</t>
-  </si>
-  <si>
-    <t>BB 2-Leg Hip Lift</t>
-  </si>
-  <si>
-    <t>Slide Leg Curl</t>
-  </si>
-  <si>
-    <t>SB Leg Curl</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+  <si>
+    <t xml:space="preserve">Exercise Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toe Touch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVC w/Band Hip Hinge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB Elevated Deadlift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB Deadlift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB Swing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2L Hip Lift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2L Hip lift ISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH Elevated 2 Leg Hip Lift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slide Leg Curl ECC 5sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB 2 Leg Curl ECC 5sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deficit KB Deadlift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2KB/DB Deadlift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted 2-Leg Hip Lift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB 2-Leg Hip Lift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slide Leg Curl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB Leg Curl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TK 1Arm Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standing 1Arm Row</t>
+  </si>
+  <si>
+    <t>Cat/Cow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bench Staddle DB/KB Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bench 2point DB/KB Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bench 2point Powerblock ROW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body elevated TRX Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chest Supported Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supine Floor Slides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seated Wall Slides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standing Wall Slides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seated Wall Slides w/tennis ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 Get up No weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 Get up No weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadruped Rock Back pushes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Bear Crawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoga Push Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC45 DB/KB Bench Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC45 Bottom up KB Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standing Landmine Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standing Landmine Press and Reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HK Landmine Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadbug w/Yoga Block Contrlateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadbug w/Yoga Block Ipsilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadbug w/SB Contralateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plate Reach Deadbug Alt Leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadbug w/KB Oh Reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadbug w/KB OH Reach and Curl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadruped Opposite Arm and Leg Bird Dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-point bear crawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB Front Squat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hang Clean from Hip (high hang)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hang Clean from Kness (Power Hang)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB Full Snatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB Full Clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movement Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movement Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW or EQ Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movement Difficulty Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body Part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Muscle Involved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plane Of Motion</t>
+  </si>
+  <si>
+    <t>Contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinetic Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMS/SFMA Required Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex Modification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rehab friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combination exercise</t>
+  </si>
+  <si>
+    <t>Laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Exercise Classification</t>
+  </si>
+  <si>
+    <t>Supine</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Throwing</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>⛔RED-STOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rectus Abdominis</t>
+  </si>
+  <si>
+    <t>Sagittal</t>
+  </si>
+  <si>
+    <t>Reactive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Kinetic Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breath Practice</t>
+  </si>
+  <si>
+    <t>UNMODIFIED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✅ Yes (Rehab Friendly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Movement</t>
+  </si>
+  <si>
+    <t>Bilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movement Preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridge position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip Dominant Double Leg</t>
+  </si>
+  <si>
+    <t>Jumping</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>⚠️Yellow-caution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gluteus Maximus</t>
+  </si>
+  <si>
+    <t>Frontal</t>
+  </si>
+  <si>
+    <t>Concetric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closed Kinetic Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active Straight Leg Raise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floating Heel (heel in the air)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⚠️ Modified (Caution in Rehab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combination Movement</t>
+  </si>
+  <si>
+    <t>Unilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobility &amp; Stretching</t>
+  </si>
+  <si>
+    <t>Side-Lying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knee Dominant Double Leg</t>
+  </si>
+  <si>
+    <t>Sprinting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodyweight Only</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>✅Green-safe</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>Obliques</t>
+  </si>
+  <si>
+    <t>Transverse</t>
+  </si>
+  <si>
+    <t>Eccentric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoulder Mobility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Feet Elevated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⛔ No (Not Rehab Friendly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unilateral Assisted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Side Plank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip Dominant Single Leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosive Strength Movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight Vest</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whole Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pectoralis Major</t>
+  </si>
+  <si>
+    <t>Multiplanar</t>
+  </si>
+  <si>
+    <t>Isometric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toe Touch Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment Raised</t>
+  </si>
+  <si>
+    <t>Ipsilateral</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>Prone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knee Dominant Single Leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympic Lifts</t>
+  </si>
+  <si>
+    <t>Kettlebell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posterior Deltoids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thoracic Rotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heels Elevated</t>
+  </si>
+  <si>
+    <t>Contralateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrective Interventions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plank Position</t>
+  </si>
+  <si>
+    <t>Pull-Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunge Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Kettlebells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latissimus Dorsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip Flexion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feet Elevated</t>
+  </si>
+  <si>
+    <t>Alternating</t>
+  </si>
+  <si>
+    <t>Grinding</t>
+  </si>
+  <si>
+    <t>Quadruped</t>
+  </si>
+  <si>
+    <t>Push-Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunge Dynamic</t>
+  </si>
+  <si>
+    <t>Dumbbell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adductor Magnus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotary Stability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body Elevated</t>
+  </si>
+  <si>
+    <t>Ballistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bear position</t>
+  </si>
+  <si>
+    <t>Pull-Horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip Hinge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Dumbbells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biceps Brachii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trunk Stability Push up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hands Elevated</t>
+  </si>
+  <si>
+    <t>Bodybuilding</t>
+  </si>
+  <si>
+    <t>Seated</t>
+  </si>
+  <si>
+    <t>Push-Horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip Extension</t>
+  </si>
+  <si>
+    <t>Barbell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadriceps Femoris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip Stability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutral Grip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy System Development</t>
+  </si>
+  <si>
+    <t>Tall-Kneeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Stability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trap Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anterior Deltoids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inline Lunge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusting the set-up</t>
+  </si>
+  <si>
+    <t>Half-Kneeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Dynamic</t>
+  </si>
+  <si>
+    <t>Anti-Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight Plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biceps Femoris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurdle Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standing Bilateral</t>
+  </si>
+  <si>
+    <t>Conditioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-Lateral Flexion</t>
+  </si>
+  <si>
+    <t>Sandbag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gluteus Medius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Squat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staggered Stance</t>
+  </si>
+  <si>
+    <t>Anti-Rotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable Machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Trapezius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBO (Multiple Patterns Involved)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split Stance</t>
+  </si>
+  <si>
+    <t>Rotational</t>
+  </si>
+  <si>
+    <t>Landmine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triceps Brachii</t>
+  </si>
+  <si>
+    <t>Single-Leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Rotational &amp; Stability Accessory**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flat Bench</t>
+  </si>
+  <si>
+    <t>Hanging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoulder Internal Rotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incline Bench</t>
+  </si>
+  <si>
+    <t>Brachioradialis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverted Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoulder External Rotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini Band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erector Spinae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip External Rotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Band</t>
+  </si>
+  <si>
+    <t>Infraspinatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip Adduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspension Trainer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medial Deltoids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip Abduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gymnastic Rings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoulder Scapular Plane Elevation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull Up Bar</t>
+  </si>
+  <si>
+    <t>Gastrocnemius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loaded Carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicine Ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tibialis Anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***Upper Body Isolation***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stability Ball</t>
+  </si>
+  <si>
+    <t>Iliopsoas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elbow Flexion</t>
+  </si>
+  <si>
+    <t>Roller</t>
+  </si>
+  <si>
+    <t>Subscapularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elbow Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ab Wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serratus Anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoulder Flexion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Ropes</t>
+  </si>
+  <si>
+    <t>Soleus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoulder Abduction</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scapular Elevation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrist Flexion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrist Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***Spine &amp; Joint Isolation:***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spinal Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spinal Flexion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***Lower Body Isolation:***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankle Plantar Flexion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankle Dorsiflexion</t>
+  </si>
+  <si>
+    <t>***ESD***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Impact_Aerobic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Impact_Anaerobic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Impact_Aerobic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Impact_Anaerobic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Impact_Aerobic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Impact_Anaerobic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14.000000"/>
+      <color indexed="65"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FFA6A6A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -120,22 +859,22 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="65"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="65"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -150,82 +889,542 @@
       <bottom style="thin">
         <color rgb="FFF6F8F9"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="65"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color indexed="65"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color indexed="65"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color indexed="65"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color indexed="65"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="65"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color indexed="65"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color indexed="65"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color indexed="65"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="65"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color indexed="65"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="65"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="65"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="3" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="3" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="4" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="4" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="4" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF6F8F9"/>
           <bgColor rgb="FFF6F8F9"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF356854"/>
-          <bgColor rgb="FF356854"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
-    <tableStyle name="Arkusz2-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Arkusz2-style" pivot="0" count="3">
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="0"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" size="1" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_ex_db" displayName="tbl_ex_db" ref="A1:A27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="tbl_ex_db" ref="A1:A52">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exercise Name"/>
+    <tableColumn id="1" name="Exercise Name"/>
   </tableColumns>
   <tableStyleInfo name="Arkusz2-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -282,7 +1481,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -308,7 +1507,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -360,16 +1559,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -385,7 +1596,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -416,128 +1627,1580 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="22.629999999999999"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="14.25"/>
+    <col customWidth="1" min="3" max="3" width="21.25"/>
+    <col customWidth="1" min="4" max="4" width="28.129999999999999"/>
+    <col customWidth="1" min="5" max="5" width="15.630000000000001"/>
+    <col customWidth="1" min="6" max="6" width="26.5"/>
+    <col customWidth="1" min="7" max="7" width="14.130000000000001"/>
+    <col customWidth="1" min="8" max="8" width="10.380000000000001"/>
+    <col customWidth="1" min="9" max="9" width="24.879999999999999"/>
+    <col customWidth="1" min="10" max="10" width="17"/>
+    <col customWidth="1" min="12" max="12" width="16"/>
+    <col customWidth="1" min="13" max="13" width="33"/>
+    <col customWidth="1" min="14" max="14" width="22.5"/>
+    <col customWidth="1" min="15" max="15" width="23"/>
+    <col customWidth="1" min="16" max="16" width="21.75"/>
+    <col customWidth="1" min="17" max="17" width="14.75"/>
+    <col customWidth="1" min="18" max="18" width="30.129999999999999"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="15"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="15"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="15"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="15"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="12"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="15"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="12"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="15"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="12"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="15"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="12"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="15"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="12"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="15"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="12"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="15"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="12"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="15"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="12"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="15"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="12"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="15"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="12"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="15"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="12"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>